--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,18 +49,21 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
@@ -73,12 +76,12 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -88,84 +91,78 @@
     <t>special</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>online</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
@@ -175,16 +172,13 @@
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -542,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -653,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -661,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.702054794520548</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C5">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D5">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -729,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4266666666666667</v>
+        <v>0.3837209302325582</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
         <v>0.8571428571428571</v>
@@ -811,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3825503355704698</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C7">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8414634146341463</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3662790697674418</v>
+        <v>0.348993288590604</v>
       </c>
       <c r="C8">
-        <v>189</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>189</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>327</v>
+        <v>97</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8">
         <v>0.8333333333333334</v>
@@ -932,16 +926,16 @@
         <v>126</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.828125</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L9">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M9">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2103174603174603</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C10">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>199</v>
+        <v>65</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1003,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1233243967828418</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1029,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>0.7890625</v>
       </c>
       <c r="L11">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M11">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1053,47 +1047,71 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.1179624664879357</v>
+      </c>
+      <c r="C12">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>329</v>
+      </c>
       <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0.775</v>
+      </c>
+      <c r="L12">
+        <v>93</v>
+      </c>
+      <c r="M12">
+        <v>93</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>27</v>
-      </c>
-      <c r="K12">
-        <v>0.7887323943661971</v>
-      </c>
-      <c r="L12">
-        <v>112</v>
-      </c>
-      <c r="M12">
-        <v>112</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.7872340425531915</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L13">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1105,21 +1123,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1131,21 +1149,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7358490566037735</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L15">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1157,47 +1175,47 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="L16">
+        <v>75</v>
+      </c>
+      <c r="M16">
+        <v>75</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>31</v>
-      </c>
-      <c r="K16">
-        <v>0.7254901960784313</v>
-      </c>
-      <c r="L16">
-        <v>37</v>
-      </c>
-      <c r="M16">
-        <v>37</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.7142857142857143</v>
+        <v>0.69375</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1209,21 +1227,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.69375</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L18">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="M18">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1235,21 +1253,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.6702127659574468</v>
+        <v>0.6161879895561357</v>
       </c>
       <c r="L19">
-        <v>63</v>
+        <v>236</v>
       </c>
       <c r="M19">
-        <v>63</v>
+        <v>236</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1261,21 +1279,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1287,21 +1305,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6222222222222222</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1313,21 +1331,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.6135770234986945</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1339,21 +1357,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>148</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.611764705882353</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L23">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="M23">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1365,21 +1383,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>132</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.5617977528089888</v>
+        <v>0.5676470588235294</v>
       </c>
       <c r="L24">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="M24">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1391,21 +1409,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>39</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.5322033898305085</v>
+        <v>0.5627118644067797</v>
       </c>
       <c r="L25">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M25">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1417,21 +1435,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1443,21 +1461,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.4923076923076923</v>
+        <v>0.46875</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1469,21 +1487,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.4435146443514644</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L28">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1495,21 +1513,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>133</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.4358974358974359</v>
+        <v>0.4560669456066946</v>
       </c>
       <c r="L29">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1521,21 +1539,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>44</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.410958904109589</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1547,21 +1565,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.390625</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1573,21 +1591,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>39</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.1162790697674419</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1599,21 +1617,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>190</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.1153846153846154</v>
+        <v>0.0894854586129754</v>
       </c>
       <c r="L33">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="M33">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1625,21 +1643,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>368</v>
+        <v>814</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.1124401913875598</v>
+        <v>0.06659267480577137</v>
       </c>
       <c r="L34">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="M34">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1651,189 +1669,111 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>371</v>
+        <v>841</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.09742441209406495</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="L35">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="N35">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O35">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>806</v>
+        <v>616</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.06222222222222222</v>
+        <v>0.03743565746373421</v>
       </c>
       <c r="L36">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="M36">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="N36">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O36">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>844</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.05384615384615385</v>
+        <v>0.03233256351039261</v>
       </c>
       <c r="L37">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>615</v>
+        <v>838</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.04036908881199539</v>
+        <v>0.01804705124073477</v>
       </c>
       <c r="L38">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="M38">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K39">
-        <v>0.03366058906030855</v>
-      </c>
-      <c r="L39">
-        <v>72</v>
-      </c>
-      <c r="M39">
-        <v>76</v>
-      </c>
-      <c r="N39">
-        <v>0.95</v>
-      </c>
-      <c r="O39">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K40">
-        <v>0.01903839948370442</v>
-      </c>
-      <c r="L40">
-        <v>59</v>
-      </c>
-      <c r="M40">
-        <v>67</v>
-      </c>
-      <c r="N40">
-        <v>0.88</v>
-      </c>
-      <c r="O40">
-        <v>0.12</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>3040</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K41">
-        <v>0.008153026026967701</v>
-      </c>
-      <c r="L41">
-        <v>26</v>
-      </c>
-      <c r="M41">
-        <v>38</v>
-      </c>
-      <c r="N41">
-        <v>0.68</v>
-      </c>
-      <c r="O41">
-        <v>0.32</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>3163</v>
+        <v>3047</v>
       </c>
     </row>
   </sheetData>
